--- a/ttgood/backup3/id004.xlsx
+++ b/ttgood/backup3/id004.xlsx
@@ -4,33 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -52,25 +44,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -144,6 +132,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -178,6 +167,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -358,11 +348,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -372,11 +360,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -386,10 +372,8 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ttgood/backup3/id004.xlsx
+++ b/ttgood/backup3/id004.xlsx
@@ -1,37 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="210" yWindow="450" windowWidth="20160" windowHeight="7410"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="result" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
@@ -47,13 +58,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,37 +361,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/ttgood/backup3/id004.xlsx
+++ b/ttgood/backup3/id004.xlsx
@@ -371,7 +371,7 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ttgood/backup3/id004.xlsx
+++ b/ttgood/backup3/id004.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="450" windowWidth="20160" windowHeight="7410"/>
+    <workbookView xWindow="570" yWindow="405" windowWidth="27720" windowHeight="11910"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -20,8 +20,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -67,11 +67,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -361,27 +356,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
+  </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -390,13 +373,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ttgood/backup3/id004.xlsx
+++ b/ttgood/backup3/id004.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="450" windowWidth="20160" windowHeight="7410"/>
+    <workbookView xWindow="570" yWindow="405" windowWidth="27720" windowHeight="11910"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -20,8 +20,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -67,11 +67,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -361,12 +356,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="7" max="7" width="18.125" customWidth="1"/>
   </cols>
@@ -374,17 +369,17 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -394,12 +389,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="1" type="noConversion"/>
